--- a/biology/Microbiologie/Respiration_anaérobie/Respiration_anaérobie.xlsx
+++ b/biology/Microbiologie/Respiration_anaérobie/Respiration_anaérobie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Respiration_ana%C3%A9robie</t>
+          <t>Respiration_anaérobie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La respiration anaérobie est un mécanisme dans lequel des électrons passent sur une chaîne de transporteurs dont l'accepteur final est une substance minérale autre que le dioxygène, contrairement à une respiration aérobie où l'accepteur final est du dioxygène.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Respiration_ana%C3%A9robie</t>
+          <t>Respiration_anaérobie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>L'accepteur final est l'ion nitrate</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines bactéries sont capables, en anaérobiose, de réduire les nitrates en nitrites puis, suivant les cas (par exemple Pseudomonas) en diazote (avec l'enzyme nitrate réductase A).
             N
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Respiration_ana%C3%A9robie</t>
+          <t>Respiration_anaérobie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,7 +571,9 @@
           <t>L'accepteur final est l'ion sulfate</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le cas des bactéries du genre Clostridium (dont les cultures sont particulièrement nauséabondes).
             S
@@ -591,7 +607,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Respiration_ana%C3%A9robie</t>
+          <t>Respiration_anaérobie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -609,7 +625,9 @@
           <t>L'accepteur final est le dioxyde de carbone</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce type de respiration est effectué par les archées méthanogènes (responsables des feux follets), comme par exemple celles du genre Methanobacter.
 CO2 + 4 H2 → CH4 + 2 H2O
